--- a/week2/DataManipString/HeroInfo.xlsx
+++ b/week2/DataManipString/HeroInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Catherine-Schiber-Code\week2\DataManipString\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6280B3-6184-46F2-9EEE-BBF4EFC970F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC0ABED-AA16-4C52-854C-4BD8509D146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="3230" windowWidth="16800" windowHeight="9670" xr2:uid="{18971B67-6ED8-48D5-A150-1999A9087739}"/>
   </bookViews>

--- a/week2/DataManipString/HeroInfo.xlsx
+++ b/week2/DataManipString/HeroInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Catherine-Schiber-Code\week2\DataManipString\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC0ABED-AA16-4C52-854C-4BD8509D146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0183FD-4B66-49DE-9815-F3F66050D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="3230" windowWidth="16800" windowHeight="9670" xr2:uid="{18971B67-6ED8-48D5-A150-1999A9087739}"/>
   </bookViews>
